--- a/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
+++ b/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Firmware/RRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54BAFC7-EF96-411A-8C67-5D0525EAE3B8}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF85D5A8-66CB-4F32-A4FF-7C210BD47A2E}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
   <si>
     <t>Toolhead</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Centimeter</t>
   </si>
   <si>
-    <t>Pin nr</t>
-  </si>
-  <si>
     <t>ROS</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>temp0</t>
+  </si>
+  <si>
+    <t>Wire nr</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,17 +785,17 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <v>18</v>
@@ -833,7 +833,7 @@
         <v>110</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5">
         <v>18</v>
@@ -862,7 +862,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,17 +873,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" s="13">
         <v>24</v>
       </c>
@@ -891,7 +891,7 @@
         <v>110</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -902,16 +902,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5">
         <v>24</v>
@@ -920,7 +920,7 @@
         <v>110</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,16 +937,19 @@
         <v>5</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>24</v>
       </c>
       <c r="H7" s="3">
         <v>110</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,16 +966,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="5">
         <v>24</v>
       </c>
       <c r="H8" s="6">
         <v>110</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,16 +995,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="2">
         <v>24</v>
       </c>
       <c r="H9" s="3">
         <v>110</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1015,16 +1024,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="13">
         <v>24</v>
       </c>
       <c r="H10" s="14">
         <v>110</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,16 +1053,19 @@
         <v>8</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5">
         <v>24</v>
       </c>
       <c r="H11" s="6">
         <v>110</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1067,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>24</v>
@@ -1079,7 +1094,7 @@
         <v>110</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1096,11 +1111,11 @@
         <v>3</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" s="5">
         <v>24</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>110</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1125,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
         <v>24</v>
@@ -1137,7 +1152,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1154,11 +1169,11 @@
         <v>3</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="G15" s="5">
         <v>24</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>110</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1177,22 +1192,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>24</v>
       </c>
       <c r="H16" s="3">
         <v>110</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,22 +1221,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="G17" s="19">
         <v>24</v>
       </c>
       <c r="H17" s="14">
         <v>110</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,22 +1250,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="5">
         <v>24</v>
       </c>
       <c r="H18" s="6">
         <v>110</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,17 +1279,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="G19" s="2">
         <v>24</v>
       </c>
@@ -1273,7 +1297,7 @@
         <v>110</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,16 +1308,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="5">
         <v>24</v>
@@ -1302,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1313,16 +1337,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="2">
         <v>24</v>
@@ -1331,7 +1355,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,16 +1366,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="5">
         <v>24</v>
@@ -1360,7 +1384,7 @@
         <v>110</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,16 +1395,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="19">
         <v>24</v>
@@ -1389,7 +1413,7 @@
         <v>110</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,17 +1424,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="G24" s="21">
         <v>24</v>
       </c>
@@ -1418,7 +1442,7 @@
         <v>110</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,16 +1453,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="24">
         <v>24</v>
@@ -1446,7 +1470,9 @@
       <c r="H25" s="7">
         <v>110</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1456,24 +1482,26 @@
         <v>24</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="G26" s="21">
         <v>24</v>
       </c>
       <c r="H26" s="8">
         <v>110</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1483,22 +1511,26 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="24">
         <v>24</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="7">
+        <v>110</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1508,22 +1540,26 @@
         <v>26</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G28" s="21">
         <v>24</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="8">
+        <v>110</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1533,22 +1569,26 @@
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="24">
         <v>24</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="7">
+        <v>100</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1558,22 +1598,26 @@
         <v>28</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="G30" s="21">
         <v>24</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1583,22 +1627,26 @@
         <v>29</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="24">
         <v>24</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="7">
+        <v>50</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1608,22 +1656,26 @@
         <v>30</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="21">
         <v>24</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="23"/>
+      <c r="H32" s="8">
+        <v>50</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1633,21 +1685,23 @@
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="24">
         <v>24</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <v>50</v>
+      </c>
       <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1658,21 +1712,23 @@
         <v>32</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="21">
         <v>24</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>50</v>
+      </c>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1698,7 +1754,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1708,7 +1764,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="11">
         <f>SUM(H3:H36)</f>
-        <v>2640</v>
+        <v>3260</v>
       </c>
     </row>
   </sheetData>

--- a/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
+++ b/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Firmware/RRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF85D5A8-66CB-4F32-A4FF-7C210BD47A2E}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BD9C28-DB7F-4A44-AC59-98AD2AC84125}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>IO_3</t>
   </si>
   <si>
-    <t>io8.in</t>
-  </si>
-  <si>
     <t>DRIVER 2</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Wire nr</t>
+  </si>
+  <si>
+    <t>io3.in</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>110</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>110</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -920,7 +920,7 @@
         <v>110</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>110</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>110</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>110</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>110</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>110</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>110</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>110</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>110</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G17" s="19">
         <v>24</v>
@@ -1239,7 +1239,7 @@
         <v>110</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>110</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1285,11 +1285,11 @@
         <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="G19" s="2">
         <v>24</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>110</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="5">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2">
         <v>24</v>
@@ -1355,7 +1355,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1372,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5">
         <v>24</v>
@@ -1384,7 +1384,7 @@
         <v>110</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1395,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>28</v>
@@ -1413,7 +1413,7 @@
         <v>110</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,17 +1424,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" s="21">
         <v>24</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>110</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,16 +1453,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="24">
         <v>24</v>
@@ -1471,7 +1471,7 @@
         <v>110</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,17 +1482,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="G26" s="21">
         <v>24</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>110</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,13 +1511,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>37</v>
@@ -1529,7 +1529,7 @@
         <v>110</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,17 +1540,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="G28" s="21">
         <v>24</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>110</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,13 +1569,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>28</v>
@@ -1587,7 +1587,7 @@
         <v>100</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,16 +1598,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="G30" s="21">
         <v>24</v>
@@ -1616,7 +1616,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1627,13 +1627,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>25</v>
@@ -1645,7 +1645,7 @@
         <v>50</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,16 +1656,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="21">
         <v>24</v>
@@ -1674,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,13 +1685,13 @@
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>25</v>
@@ -1712,16 +1712,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="21">
         <v>24</v>

--- a/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
+++ b/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Firmware/RRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BD9C28-DB7F-4A44-AC59-98AD2AC84125}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43240FA4-4822-4623-A5CE-4E8787C836F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
-  <si>
-    <t>Toolhead</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
   <si>
     <t>Heater</t>
   </si>
@@ -76,9 +73,6 @@
     <t>Tool Fan</t>
   </si>
   <si>
-    <t>Fan Coldend</t>
-  </si>
-  <si>
     <t>Connector</t>
   </si>
   <si>
@@ -181,12 +175,6 @@
     <t>temp3</t>
   </si>
   <si>
-    <t>Heater Temp</t>
-  </si>
-  <si>
-    <t>E-Motor Temp</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -217,9 +205,6 @@
     <t>out9</t>
   </si>
   <si>
-    <t>Bed Temp</t>
-  </si>
-  <si>
     <t>Bed SSR</t>
   </si>
   <si>
@@ -251,6 +236,30 @@
   </si>
   <si>
     <t>io3.in</t>
+  </si>
+  <si>
+    <t>Coldend Fan</t>
+  </si>
+  <si>
+    <t>Temp Nozzle</t>
+  </si>
+  <si>
+    <t>Temp E-Motor</t>
+  </si>
+  <si>
+    <t>Temp Bed</t>
+  </si>
+  <si>
+    <t>Temp Chamber</t>
+  </si>
+  <si>
+    <t>Temp 2</t>
+  </si>
+  <si>
+    <t>temp2</t>
+  </si>
+  <si>
+    <t>Component</t>
   </si>
 </sst>
 </file>
@@ -761,50 +770,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCEA2A-0112-4BDF-A28B-3533F086DD69}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
+    <col min="9" max="9" width="5.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2">
         <v>18</v>
@@ -833,7 +847,7 @@
         <v>110</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,16 +858,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5">
         <v>18</v>
@@ -862,7 +876,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="13">
         <v>24</v>
@@ -891,7 +905,7 @@
         <v>110</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -902,17 +916,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="5">
         <v>24</v>
       </c>
@@ -920,7 +934,7 @@
         <v>110</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -931,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
         <v>24</v>
@@ -949,7 +963,7 @@
         <v>110</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -960,16 +974,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5">
         <v>24</v>
@@ -978,7 +992,7 @@
         <v>110</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
         <v>24</v>
@@ -1007,7 +1021,7 @@
         <v>110</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1018,17 +1032,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="13">
         <v>24</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,16 +1061,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5">
         <v>24</v>
@@ -1065,7 +1079,7 @@
         <v>110</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,16 +1090,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2">
         <v>24</v>
@@ -1094,7 +1108,7 @@
         <v>110</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,16 +1119,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5">
         <v>24</v>
@@ -1123,7 +1137,7 @@
         <v>110</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1134,17 +1148,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" s="2">
         <v>24</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>110</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,16 +1177,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="5">
         <v>24</v>
@@ -1181,7 +1195,7 @@
         <v>110</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,16 +1206,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2">
         <v>24</v>
@@ -1210,7 +1224,7 @@
         <v>110</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,16 +1235,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G17" s="19">
         <v>24</v>
@@ -1239,7 +1253,7 @@
         <v>110</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,16 +1264,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="5">
         <v>24</v>
@@ -1268,7 +1282,7 @@
         <v>110</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,16 +1293,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2">
         <v>24</v>
@@ -1297,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,16 +1322,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5">
         <v>24</v>
@@ -1326,7 +1340,7 @@
         <v>110</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,17 +1351,17 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" s="2">
         <v>24</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>110</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,16 +1380,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="5">
         <v>24</v>
@@ -1384,7 +1398,7 @@
         <v>110</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1395,16 +1409,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" s="19">
         <v>24</v>
@@ -1413,7 +1427,7 @@
         <v>110</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,16 +1438,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G24" s="21">
         <v>24</v>
@@ -1442,7 +1456,7 @@
         <v>110</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1453,16 +1467,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G25" s="24">
         <v>24</v>
@@ -1471,7 +1485,7 @@
         <v>110</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1482,16 +1496,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G26" s="21">
         <v>24</v>
@@ -1500,7 +1514,7 @@
         <v>110</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,16 +1525,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="24">
         <v>24</v>
@@ -1529,7 +1543,7 @@
         <v>110</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G28" s="21">
         <v>24</v>
@@ -1558,7 +1572,7 @@
         <v>110</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,16 +1583,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G29" s="24">
         <v>24</v>
@@ -1587,7 +1601,7 @@
         <v>100</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,16 +1612,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G30" s="21">
         <v>24</v>
@@ -1616,7 +1630,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1627,16 +1641,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="24">
         <v>24</v>
@@ -1645,7 +1659,7 @@
         <v>50</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="G32" s="21">
         <v>24</v>
@@ -1674,7 +1688,7 @@
         <v>50</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,16 +1699,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33" s="24">
         <v>24</v>
@@ -1712,16 +1726,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F34" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G34" s="21">
         <v>24</v>
@@ -1732,39 +1746,86 @@
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="1">
+        <v>16</v>
+      </c>
+      <c r="B35" s="24">
+        <v>33</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="24">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7">
+        <v>100</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="A36" s="4">
+        <v>16</v>
+      </c>
+      <c r="B36" s="21">
+        <v>34</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="21">
+        <v>24</v>
+      </c>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11">
-        <f>SUM(H3:H36)</f>
-        <v>3260</v>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11">
+        <f>SUM(H3:H37)</f>
+        <v>3460</v>
       </c>
     </row>
   </sheetData>

--- a/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
+++ b/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Firmware/RRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43240FA4-4822-4623-A5CE-4E8787C836F6}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B050D4-1BD2-4C11-BDF0-9D5E570356A0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>Heater</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Component</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -772,9 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCEA2A-0112-4BDF-A28B-3533F086DD69}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1215,7 +1216,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2">
         <v>24</v>
@@ -1267,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>38</v>

--- a/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
+++ b/Firmware/RRF/Valkyrie Duet 3 6HC Connection Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Firmware/RRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B050D4-1BD2-4C11-BDF0-9D5E570356A0}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{C788BE8B-89FF-47EE-BC54-747C3D562542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4734902E-F95E-4C40-8C59-093D6BF9B080}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{344B6B93-88E2-4E8A-A19A-9E2625195A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>Heater</t>
   </si>
@@ -263,6 +263,30 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>dht22</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>IO_6</t>
+  </si>
+  <si>
+    <t>io6.out</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -773,9 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCEA2A-0112-4BDF-A28B-3533F086DD69}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1210,13 +1236,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>75</v>
+      <c r="F16" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G16" s="2">
         <v>24</v>
@@ -1239,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G17" s="19">
         <v>24</v>
@@ -1268,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>38</v>
@@ -1776,28 +1802,28 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="12">
         <v>16</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>34</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="21">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="19">
+        <v>24</v>
+      </c>
+      <c r="H36" s="20">
         <v>100</v>
       </c>
       <c r="I36" s="23" t="s">
@@ -1805,27 +1831,102 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="1">
+        <v>17</v>
+      </c>
+      <c r="B37" s="24">
+        <v>35</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="24">
+        <v>24</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="12">
+        <v>17</v>
+      </c>
+      <c r="B38" s="19">
+        <v>36</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="19">
+        <v>24</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>17</v>
+      </c>
+      <c r="B39" s="21">
+        <v>37</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="21">
+        <v>24</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="11">
-        <f>SUM(H3:H37)</f>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11">
+        <f>SUM(H3:H40)</f>
         <v>3460</v>
       </c>
     </row>
